--- a/test1/data_sheet.xlsx
+++ b/test1/data_sheet.xlsx
@@ -35,7 +35,7 @@
     <t>swift_5_mumbai</t>
   </si>
   <si>
-    <t>{'model':'Maruti Suzuki Swift','budget':'5 L','city':'Mumbai'}</t>
+    <t>{'model':'Maruti Suzuki Swift','budget':'5 L','city':'Abcd'}</t>
   </si>
   <si>
     <t>nano_4_delhi</t>
